--- a/Topology/data/results/26-09-22/all_graphs_properties__26-09-22.xlsx
+++ b/Topology/data/results/26-09-22/all_graphs_properties__26-09-22.xlsx
@@ -468,40 +468,40 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1080.4</v>
+        <v>1042.69</v>
       </c>
       <c r="C2">
-        <v>145.9158661695157</v>
+        <v>123.5752964795149</v>
       </c>
       <c r="D2">
-        <v>2101.6</v>
+        <v>1979.14</v>
       </c>
       <c r="E2">
-        <v>433.4132439139348</v>
+        <v>369.9904058215564</v>
       </c>
       <c r="F2">
-        <v>3.853416449978433</v>
+        <v>3.766716219808819</v>
       </c>
       <c r="G2">
-        <v>0.276457188154766</v>
+        <v>0.2568665937305297</v>
       </c>
       <c r="H2">
-        <v>2.234230143903507</v>
+        <v>2.195400095628738</v>
       </c>
       <c r="I2">
-        <v>0.1125914488568062</v>
+        <v>0.1090808973124319</v>
       </c>
       <c r="J2">
-        <v>14.29659863945578</v>
+        <v>13.46353741496599</v>
       </c>
       <c r="K2">
-        <v>2.94838941438051</v>
+        <v>2.516941536201064</v>
       </c>
       <c r="L2">
-        <v>0.9565482028771672</v>
+        <v>0.9568432544698804</v>
       </c>
       <c r="M2">
-        <v>0.01309340083955685</v>
+        <v>0.009309327195557066</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -509,10 +509,10 @@
         <v>13</v>
       </c>
       <c r="B3">
-        <v>244.6</v>
+        <v>245.11</v>
       </c>
       <c r="C3">
-        <v>2.0591260281974</v>
+        <v>2.12082531105228</v>
       </c>
       <c r="D3">
         <v>147</v>
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.202047482134809</v>
+        <v>1.199551093677696</v>
       </c>
       <c r="G3">
-        <v>0.01010834502770003</v>
+        <v>0.01035917960319909</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -533,16 +533,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.506816467715681</v>
+        <v>1.499015549547811</v>
       </c>
       <c r="K3">
-        <v>0.03170848907680307</v>
+        <v>0.03227210982067696</v>
       </c>
       <c r="L3">
-        <v>0.02290559355122153</v>
+        <v>0.0218733685306578</v>
       </c>
       <c r="M3">
-        <v>0.003361668655836137</v>
+        <v>0.00217319470003748</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -556,16 +556,16 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>427.4</v>
+        <v>424.72</v>
       </c>
       <c r="E4">
-        <v>44.57173992565244</v>
+        <v>32.42038864665259</v>
       </c>
       <c r="F4">
-        <v>5.814965986394558</v>
+        <v>5.778503401360545</v>
       </c>
       <c r="G4">
-        <v>0.6064182302809855</v>
+        <v>0.4410937230837086</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8503401360544217</v>
+        <v>0.8548299319727891</v>
       </c>
       <c r="M4">
-        <v>0.02433815485714055</v>
+        <v>0.02004714698353974</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -597,16 +597,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>68.8</v>
+        <v>67.23</v>
       </c>
       <c r="E5">
-        <v>8.352245207128441</v>
+        <v>4.730443953795457</v>
       </c>
       <c r="F5">
-        <v>0.9360544217687075</v>
+        <v>0.9146938775510204</v>
       </c>
       <c r="G5">
-        <v>0.1136359892126318</v>
+        <v>0.06435978168429195</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -621,10 +621,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.03129251700680272</v>
+        <v>0.02965986394557822</v>
       </c>
       <c r="M5">
-        <v>0.005442176870748299</v>
+        <v>0.003537414965986397</v>
       </c>
     </row>
   </sheetData>
